--- a/results/I3_N5_M3_T45_C200_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s3_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2260000705718994</v>
+        <v>0.1689999103546143</v>
       </c>
     </row>
     <row r="5">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.38795072015898</v>
+        <v>40.92773953394838</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.33301651610694</v>
+        <v>30.33301651610675</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3990000000104</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000752</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>193.6310000000213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000645</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.0980000000219</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>193.6310000000214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>122.0980000000216</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
